--- a/Statistics-20241014~20241014_(0).xlsx
+++ b/Statistics-20241014~20241014_(0).xlsx
@@ -159,17 +159,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7722822438</t>
+          <t>199311330</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>90934412711</t>
+          <t>90934374847</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>휴대용 전자손저울 최대50kg 까지 측정가능 낚시용 개인용 매달림저울 여행용 주방용, 1개, 상세페이지 참조</t>
+          <t>BOBOSCALE 포켓형 전자저울 MH-500(0.1g단위 최대 500g) MH-500D(0.01g 휴대용 정밀저울 포터블저울, MH-500D</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -179,32 +179,32 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>생활용품</t>
+          <t>가전/디지털</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>11800</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>11800</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -226,65 +226,199 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>7722822438</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>90934412711</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>휴대용 전자손저울 최대50kg 까지 측정가능 낚시용 개인용 매달림저울 여행용 주방용, 1개, 상세페이지 참조</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>로켓그로스</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>생활용품</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>7725823928</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>91014799721</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1kg 주방저울 0.1g 단위 전자저울 산업용 가정용, 1개, 단품</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>로켓그로스</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>가전/디지털</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26600</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26600</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
           <t>합 계</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>22000</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>22000</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93400</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>93400</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
